--- a/sspds_downloads/Crimes-Sexuais_2025.xlsx
+++ b/sspds_downloads/Crimes-Sexuais_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\13 - ESTATÍSTICAS DO SITE\Lista_Excel\Publicação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021158F-FB02-4B9F-857A-5EA97B2C5796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3384842C-808E-4A79-A1DF-146D1A20CADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9089" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10384" uniqueCount="411">
   <si>
     <t>AIS 24</t>
   </si>
@@ -1175,6 +1175,87 @@
   <si>
     <t>14:13:00</t>
   </si>
+  <si>
+    <t>Granjeiro</t>
+  </si>
+  <si>
+    <t>14:56:00</t>
+  </si>
+  <si>
+    <t>09:40:00</t>
+  </si>
+  <si>
+    <t>23:20:00</t>
+  </si>
+  <si>
+    <t>00:03:00</t>
+  </si>
+  <si>
+    <t>13:05:00</t>
+  </si>
+  <si>
+    <t>Groaíras</t>
+  </si>
+  <si>
+    <t>08:40:00</t>
+  </si>
+  <si>
+    <t>17:23:00</t>
+  </si>
+  <si>
+    <t>17:34:00</t>
+  </si>
+  <si>
+    <t>12:38:00</t>
+  </si>
+  <si>
+    <t>Pedra Branca</t>
+  </si>
+  <si>
+    <t>07:26:00</t>
+  </si>
+  <si>
+    <t>11:15:00</t>
+  </si>
+  <si>
+    <t>10:56:00</t>
+  </si>
+  <si>
+    <t>11:12:00</t>
+  </si>
+  <si>
+    <t>Jaguaribara</t>
+  </si>
+  <si>
+    <t>Choró</t>
+  </si>
+  <si>
+    <t>00:04:12</t>
+  </si>
+  <si>
+    <t>03:45:00</t>
+  </si>
+  <si>
+    <t>23:24:00</t>
+  </si>
+  <si>
+    <t>01:10:00</t>
+  </si>
+  <si>
+    <t>19:12:00</t>
+  </si>
+  <si>
+    <t>05:12:00</t>
+  </si>
+  <si>
+    <t>20:40:00</t>
+  </si>
+  <si>
+    <t>00:40:00</t>
+  </si>
+  <si>
+    <t>Milhã</t>
+  </si>
 </sst>
 </file>
 
@@ -1529,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1284"/>
+  <dimension ref="A1:I1469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A1463" workbookViewId="0">
+      <selection activeCell="C1472" sqref="C1472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38782,6 +38863,5314 @@
       </c>
       <c r="I1284" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1285" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1285" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1285">
+        <v>12</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1286" s="5">
+        <v>45921</v>
+      </c>
+      <c r="D1286" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1286">
+        <v>8</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1287" s="5">
+        <v>45904</v>
+      </c>
+      <c r="D1287" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1288" s="5">
+        <v>45906</v>
+      </c>
+      <c r="D1288" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1288">
+        <v>5</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1289" s="5">
+        <v>45910</v>
+      </c>
+      <c r="D1289" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1289">
+        <v>13</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1289" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1290" s="5">
+        <v>45923</v>
+      </c>
+      <c r="D1290" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1290">
+        <v>8</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1291" s="5">
+        <v>45922</v>
+      </c>
+      <c r="D1291" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1291">
+        <v>12</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1292" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1292" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1292">
+        <v>9</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1293" s="5">
+        <v>45921</v>
+      </c>
+      <c r="D1293" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1293">
+        <v>7</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1294" s="5">
+        <v>45913</v>
+      </c>
+      <c r="D1294" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1294">
+        <v>13</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1294" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1295" s="5">
+        <v>45907</v>
+      </c>
+      <c r="D1295" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1295">
+        <v>12</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1295" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1296" s="5">
+        <v>45916</v>
+      </c>
+      <c r="D1296" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1296">
+        <v>6</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1297" s="5">
+        <v>45906</v>
+      </c>
+      <c r="D1297" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1297">
+        <v>7</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1297" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1298" s="5">
+        <v>45905</v>
+      </c>
+      <c r="D1298" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1298">
+        <v>12</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1298" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1299" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1299" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1299">
+        <v>10</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1300" s="5">
+        <v>45907</v>
+      </c>
+      <c r="D1300" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1300">
+        <v>4</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1301" s="5">
+        <v>45912</v>
+      </c>
+      <c r="D1301" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1301">
+        <v>9</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1301" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1302" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1302" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1303" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1303" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1303">
+        <v>5</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1303" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1304" s="5">
+        <v>45903</v>
+      </c>
+      <c r="D1304" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1304">
+        <v>16</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1304" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1305" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1305" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1305">
+        <v>6</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1306" s="5">
+        <v>45920</v>
+      </c>
+      <c r="D1306" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1306">
+        <v>12</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1307" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1307" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1307">
+        <v>12</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1308" s="5">
+        <v>45929</v>
+      </c>
+      <c r="D1308" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1308">
+        <v>3</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1309" s="5">
+        <v>45925</v>
+      </c>
+      <c r="D1309" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1309">
+        <v>14</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1309" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1310" s="5">
+        <v>45922</v>
+      </c>
+      <c r="D1310" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1310">
+        <v>17</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1311" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1311" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1311">
+        <v>12</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1312" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1312" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1312">
+        <v>15</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1313" s="5">
+        <v>45924</v>
+      </c>
+      <c r="D1313" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1313">
+        <v>14</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1314" s="5">
+        <v>45923</v>
+      </c>
+      <c r="D1314" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1314" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1315" s="5">
+        <v>45910</v>
+      </c>
+      <c r="D1315" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1315">
+        <v>12</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1316" s="5">
+        <v>45909</v>
+      </c>
+      <c r="D1316" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1316">
+        <v>13</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1317" s="5">
+        <v>45909</v>
+      </c>
+      <c r="D1317" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1317">
+        <v>14</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1317" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1318" s="5">
+        <v>45909</v>
+      </c>
+      <c r="D1318" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1318">
+        <v>15</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1318" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1319" s="5">
+        <v>45930</v>
+      </c>
+      <c r="D1319" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1319">
+        <v>11</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1319" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1320" s="5">
+        <v>45924</v>
+      </c>
+      <c r="D1320" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1320">
+        <v>7</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1321" s="5">
+        <v>45909</v>
+      </c>
+      <c r="D1321" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1322" s="5">
+        <v>45924</v>
+      </c>
+      <c r="D1322" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1322">
+        <v>12</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1322" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1323" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1323" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1323">
+        <v>5</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1323" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1324" s="5">
+        <v>45929</v>
+      </c>
+      <c r="D1324" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1324">
+        <v>13</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1325" s="5">
+        <v>45926</v>
+      </c>
+      <c r="D1325" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1325">
+        <v>29</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1325" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1326" s="5">
+        <v>45922</v>
+      </c>
+      <c r="D1326" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1326">
+        <v>15</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1327" s="5">
+        <v>45920</v>
+      </c>
+      <c r="D1327" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1327">
+        <v>10</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1328" s="5">
+        <v>45916</v>
+      </c>
+      <c r="D1328" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1328">
+        <v>14</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1329" s="5">
+        <v>45920</v>
+      </c>
+      <c r="D1329" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1330" s="5">
+        <v>45920</v>
+      </c>
+      <c r="D1330" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1330">
+        <v>15</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1331" s="5">
+        <v>45910</v>
+      </c>
+      <c r="D1331" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1331">
+        <v>16</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1332" s="5">
+        <v>45929</v>
+      </c>
+      <c r="D1332" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1332">
+        <v>14</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1333" s="5">
+        <v>45909</v>
+      </c>
+      <c r="D1333" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1333">
+        <v>7</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1333" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1334" s="5">
+        <v>45925</v>
+      </c>
+      <c r="D1334" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1334">
+        <v>15</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1335" s="5">
+        <v>45916</v>
+      </c>
+      <c r="D1335" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1335">
+        <v>13</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1335" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1336" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1336" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1336">
+        <v>14</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1337" s="5">
+        <v>45920</v>
+      </c>
+      <c r="D1337" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1337">
+        <v>16</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1338" s="5">
+        <v>45916</v>
+      </c>
+      <c r="D1338" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1338">
+        <v>14</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1338" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1339" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1339" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1339">
+        <v>12</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1340" s="5">
+        <v>45907</v>
+      </c>
+      <c r="D1340" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1340">
+        <v>4</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1340" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1341" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1341" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1341" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1341">
+        <v>12</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1342" s="5">
+        <v>45924</v>
+      </c>
+      <c r="D1342" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1342" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1342">
+        <v>14</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1343" s="5">
+        <v>45907</v>
+      </c>
+      <c r="D1343" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1343" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1343">
+        <v>14</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1343" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1344" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1344" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1344" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1345" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1345" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1345" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1345">
+        <v>3</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1345" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1346" s="5">
+        <v>45921</v>
+      </c>
+      <c r="D1346" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1346">
+        <v>3</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1346" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1347" s="5">
+        <v>45921</v>
+      </c>
+      <c r="D1347" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1347">
+        <v>13</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1347" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1348" s="5">
+        <v>45905</v>
+      </c>
+      <c r="D1348" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1348">
+        <v>14</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1349" s="5">
+        <v>45908</v>
+      </c>
+      <c r="D1349" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1349">
+        <v>16</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1349" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1350" s="5">
+        <v>45922</v>
+      </c>
+      <c r="D1350" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1350">
+        <v>13</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1350" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1351" s="5">
+        <v>45906</v>
+      </c>
+      <c r="D1351" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1351">
+        <v>13</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1351" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1352" s="5">
+        <v>45907</v>
+      </c>
+      <c r="D1352" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1352">
+        <v>12</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1352" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1353" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1353" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1353">
+        <v>5</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1353" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1354" s="5">
+        <v>45909</v>
+      </c>
+      <c r="D1354" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1354" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1355" s="5">
+        <v>45908</v>
+      </c>
+      <c r="D1355" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1355">
+        <v>13</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1355" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1356" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1356" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1356">
+        <v>15</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1356" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1357" s="5">
+        <v>45917</v>
+      </c>
+      <c r="D1357" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1357">
+        <v>11</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1357" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1358" s="5">
+        <v>45913</v>
+      </c>
+      <c r="D1358" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1358">
+        <v>13</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1358" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1359" s="5">
+        <v>45912</v>
+      </c>
+      <c r="D1359" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1359">
+        <v>13</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1359" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1360" s="5">
+        <v>45925</v>
+      </c>
+      <c r="D1360" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1360">
+        <v>11</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1360" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1361" s="5">
+        <v>45926</v>
+      </c>
+      <c r="D1361" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1361">
+        <v>16</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1361" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1362" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1362" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1362">
+        <v>13</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1362" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1363" s="5">
+        <v>45930</v>
+      </c>
+      <c r="D1363" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1363">
+        <v>13</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1363" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1364" s="5">
+        <v>45920</v>
+      </c>
+      <c r="D1364" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1365" s="5">
+        <v>45908</v>
+      </c>
+      <c r="D1365" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1365">
+        <v>13</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1365" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1366" s="5">
+        <v>45927</v>
+      </c>
+      <c r="D1366" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1366">
+        <v>12</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1366" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1367" s="5">
+        <v>45908</v>
+      </c>
+      <c r="D1367" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1367">
+        <v>13</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1367" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1368" s="5">
+        <v>45924</v>
+      </c>
+      <c r="D1368" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1368">
+        <v>17</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1368" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1369" s="5">
+        <v>45921</v>
+      </c>
+      <c r="D1369" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1369">
+        <v>13</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1369" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1370" s="5">
+        <v>45926</v>
+      </c>
+      <c r="D1370" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1370">
+        <v>15</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1371" s="5">
+        <v>45904</v>
+      </c>
+      <c r="D1371" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1371">
+        <v>12</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1371" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1372" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1372" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1372" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1373" s="5">
+        <v>45928</v>
+      </c>
+      <c r="D1373" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1373">
+        <v>5</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1373" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1374" s="5">
+        <v>45925</v>
+      </c>
+      <c r="D1374" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1374">
+        <v>13</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1374" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1375" s="5">
+        <v>45923</v>
+      </c>
+      <c r="D1375" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1375">
+        <v>13</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1375" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1376" s="5">
+        <v>45928</v>
+      </c>
+      <c r="D1376" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1376">
+        <v>11</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1376" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1377" s="5">
+        <v>45922</v>
+      </c>
+      <c r="D1377" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1377">
+        <v>7</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1378" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1378" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1378">
+        <v>2</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1378" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1379" s="5">
+        <v>45907</v>
+      </c>
+      <c r="D1379" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1379">
+        <v>7</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1379" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1380" s="5">
+        <v>45902</v>
+      </c>
+      <c r="D1380" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1380">
+        <v>14</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1380" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1381" s="5">
+        <v>45902</v>
+      </c>
+      <c r="D1381" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1381">
+        <v>6</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1381" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1382" s="5">
+        <v>45912</v>
+      </c>
+      <c r="D1382" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1382">
+        <v>3</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1382" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1383" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1383" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1383">
+        <v>12</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1383" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1384" s="5">
+        <v>45926</v>
+      </c>
+      <c r="D1384" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1384">
+        <v>13</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1384" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1385" s="5">
+        <v>45930</v>
+      </c>
+      <c r="D1385" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1385">
+        <v>11</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1385" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1386" s="5">
+        <v>45927</v>
+      </c>
+      <c r="D1386" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1386">
+        <v>11</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1386" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1387" s="5">
+        <v>45930</v>
+      </c>
+      <c r="D1387" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1387">
+        <v>14</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1387" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1388" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1388" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1388">
+        <v>11</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1388" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1389" s="5">
+        <v>45918</v>
+      </c>
+      <c r="D1389" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1389">
+        <v>15</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1389" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1390" s="5">
+        <v>45916</v>
+      </c>
+      <c r="D1390" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1390">
+        <v>12</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1390" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1391" s="5">
+        <v>45916</v>
+      </c>
+      <c r="D1391" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1391">
+        <v>12</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1391" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1392" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1392" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1392">
+        <v>3</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1392" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1393" s="5">
+        <v>45910</v>
+      </c>
+      <c r="D1393" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1393">
+        <v>6</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1393" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1394" s="5">
+        <v>45923</v>
+      </c>
+      <c r="D1394" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1394">
+        <v>4</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1394" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1395" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1395" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1395">
+        <v>3</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1395" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1396" s="5">
+        <v>45912</v>
+      </c>
+      <c r="D1396" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1396">
+        <v>4</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1396" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1397" s="5">
+        <v>45910</v>
+      </c>
+      <c r="D1397" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1397">
+        <v>6</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1397" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1398" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1398" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1398">
+        <v>9</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1398" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1399" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1399" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1399">
+        <v>4</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1399" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1400" s="5">
+        <v>45923</v>
+      </c>
+      <c r="D1400" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1400">
+        <v>14</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1400" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1401" s="5">
+        <v>45911</v>
+      </c>
+      <c r="D1401" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1401">
+        <v>15</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1401" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1402" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1402" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1402">
+        <v>12</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1402" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1403" s="5">
+        <v>45909</v>
+      </c>
+      <c r="D1403" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1403">
+        <v>15</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1403" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1404" s="5">
+        <v>45928</v>
+      </c>
+      <c r="D1404" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1404">
+        <v>8</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1404" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1405" s="5">
+        <v>45917</v>
+      </c>
+      <c r="D1405" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1405">
+        <v>10</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1405" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1406" s="5">
+        <v>45930</v>
+      </c>
+      <c r="D1406" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1406">
+        <v>13</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1406" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1407" s="5">
+        <v>45902</v>
+      </c>
+      <c r="D1407" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1407">
+        <v>16</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1407" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1408" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1408" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1408">
+        <v>10</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1408" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1409" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1409" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1409">
+        <v>16</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1409" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1410" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1410" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1410">
+        <v>9</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1410" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1411" s="5">
+        <v>45904</v>
+      </c>
+      <c r="D1411" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1411">
+        <v>17</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1411" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1412" s="5">
+        <v>45911</v>
+      </c>
+      <c r="D1412" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1412">
+        <v>14</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1412" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1413" s="5">
+        <v>45912</v>
+      </c>
+      <c r="D1413" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1413">
+        <v>15</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1413" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1414" s="5">
+        <v>45917</v>
+      </c>
+      <c r="D1414" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1414">
+        <v>17</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1415" s="5">
+        <v>45908</v>
+      </c>
+      <c r="D1415" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1415">
+        <v>12</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1416" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1416" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1416">
+        <v>14</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1417" s="5">
+        <v>45924</v>
+      </c>
+      <c r="D1417" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1417">
+        <v>11</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1417" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1418" s="5">
+        <v>45911</v>
+      </c>
+      <c r="D1418" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1418">
+        <v>12</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1419" s="5">
+        <v>45916</v>
+      </c>
+      <c r="D1419" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1420" s="5">
+        <v>45925</v>
+      </c>
+      <c r="D1420" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1420">
+        <v>13</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1420" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1421" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1421" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1421">
+        <v>13</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1421" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1422" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1422" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1422">
+        <v>13</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1423" s="5">
+        <v>45923</v>
+      </c>
+      <c r="D1423" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1423">
+        <v>11</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1424" s="5">
+        <v>45926</v>
+      </c>
+      <c r="D1424" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1424">
+        <v>9</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1424" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1425" s="5">
+        <v>45909</v>
+      </c>
+      <c r="D1425" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1425" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1426" s="5">
+        <v>45913</v>
+      </c>
+      <c r="D1426" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1426">
+        <v>16</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1426" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1427" s="5">
+        <v>45913</v>
+      </c>
+      <c r="D1427" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1427">
+        <v>23</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1427" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1428" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1428" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1428">
+        <v>18</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1429" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1429" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1429">
+        <v>24</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1430" s="5">
+        <v>45904</v>
+      </c>
+      <c r="D1430" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1430">
+        <v>42</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1431" s="5">
+        <v>45904</v>
+      </c>
+      <c r="D1431" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1431">
+        <v>18</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1432" s="5">
+        <v>45923</v>
+      </c>
+      <c r="D1432" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1432">
+        <v>51</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1433" s="5">
+        <v>45913</v>
+      </c>
+      <c r="D1433" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1433">
+        <v>30</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1434" s="5">
+        <v>45924</v>
+      </c>
+      <c r="D1434" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1435" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1435" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1435">
+        <v>40</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1436" s="5">
+        <v>45905</v>
+      </c>
+      <c r="D1436" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1436">
+        <v>25</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1437" s="5">
+        <v>45905</v>
+      </c>
+      <c r="D1437" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1438" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1438" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1438">
+        <v>23</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1439" s="5">
+        <v>45912</v>
+      </c>
+      <c r="D1439" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1439">
+        <v>25</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1440" s="5">
+        <v>45907</v>
+      </c>
+      <c r="D1440" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1440">
+        <v>23</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1441" s="5">
+        <v>45921</v>
+      </c>
+      <c r="D1441" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1441">
+        <v>37</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1442" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1442" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1442">
+        <v>20</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1443" s="5">
+        <v>45907</v>
+      </c>
+      <c r="D1443" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1443">
+        <v>16</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1443" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1444" s="5">
+        <v>45907</v>
+      </c>
+      <c r="D1444" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1444">
+        <v>26</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1445" s="5">
+        <v>45902</v>
+      </c>
+      <c r="D1445" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1445">
+        <v>80</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1446" s="5">
+        <v>45923</v>
+      </c>
+      <c r="D1446" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1446">
+        <v>27</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1447" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1447" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1447">
+        <v>42</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1448" s="5">
+        <v>45924</v>
+      </c>
+      <c r="D1448" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1448">
+        <v>19</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1448" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1449" s="5">
+        <v>45922</v>
+      </c>
+      <c r="D1449" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1449">
+        <v>39</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1449" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1450" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1450" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1451" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1451" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1451" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1452" s="5">
+        <v>45921</v>
+      </c>
+      <c r="D1452" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1452">
+        <v>47</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1452" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1453" s="5">
+        <v>45925</v>
+      </c>
+      <c r="D1453" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1453">
+        <v>32</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1453" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1454" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1454" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1454">
+        <v>34</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1454" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1455" s="5">
+        <v>45908</v>
+      </c>
+      <c r="D1455" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1455">
+        <v>27</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1455" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1456" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1456" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1456">
+        <v>14</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1456" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1457" s="5">
+        <v>45912</v>
+      </c>
+      <c r="D1457" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1457">
+        <v>36</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1457" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1458" s="5">
+        <v>45911</v>
+      </c>
+      <c r="D1458" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1458">
+        <v>30</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1458" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1459" s="5">
+        <v>45913</v>
+      </c>
+      <c r="D1459" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1459" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1460" s="5">
+        <v>45919</v>
+      </c>
+      <c r="D1460" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1460" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1460">
+        <v>12</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1460" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1461" s="5">
+        <v>45902</v>
+      </c>
+      <c r="D1461" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1461" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1462" s="5">
+        <v>45915</v>
+      </c>
+      <c r="D1462" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1462">
+        <v>13</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1462" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1463" s="5">
+        <v>45903</v>
+      </c>
+      <c r="D1463" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1463" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1464" s="5">
+        <v>45901</v>
+      </c>
+      <c r="D1464" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1464">
+        <v>28</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1464" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1465" s="5">
+        <v>45927</v>
+      </c>
+      <c r="D1465" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1465">
+        <v>19</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1465" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1466" s="5">
+        <v>45914</v>
+      </c>
+      <c r="D1466" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1466">
+        <v>21</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1467" s="5">
+        <v>45920</v>
+      </c>
+      <c r="D1467" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1468" s="5">
+        <v>45929</v>
+      </c>
+      <c r="D1468" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1468">
+        <v>25</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1469" s="5">
+        <v>45922</v>
+      </c>
+      <c r="D1469" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1469">
+        <v>31</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
